--- a/data/hotels_by_city/Dallas/Dallas_shard_382.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_382.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="725">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>alexx f</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>daystep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r523907797-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Have been staying at this hotel since August 14th.This is our home til Oct.when our house will be finished being built.Rossy has made our stay a pleasure, she is an asset to this hotel.All the employee are friendly. Rooms are very well taken care of. I sure will tell others about the great hotel it is.More</t>
   </si>
   <si>
+    <t>rfassler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r516479642-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>Royse city's Holiday inn is like most of the Holiday inn's. It's clean and comfortable. What makes Royse city's Holiday inn special, is the staff. We stayed for three 3 weeks in a row on business, just going home for the week ends. And the staff was wonderful, they made our time here as comfortable and relaxing as could be and not be at home. Rossy at the front desk is the sweatiest and dearest thing ever. The breakfast is the same as any other Continental breakfast, except for the lady that serves it. She is so joyful and such a happy person, she makes you forget, at least for a short time that your working away from home and brightens the start of the day. I what to thank all the staff at Holiday Inn Express in Royse city TexasYou all were wonderful!!!More</t>
   </si>
   <si>
+    <t>Swins222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r509030483-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>Nice location north of Dallas. Our room was great - mini fridge, microwave,  k-cups,  hairdryer &amp; easy wi-fi access. There is lots of road construction in the area and traffic on 35 can be backed up. Good location with a convenience store &amp; Denny's across the street.More</t>
   </si>
   <si>
+    <t>childress_tammy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r507610501-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t>Rossy made our stay so much more pleasant when our house flooded. She made a difficult time more bearable and displayed the most professional service I've ever seen in a hotel setting. Thank you Rossy!!More</t>
   </si>
   <si>
+    <t>T. P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r493575848-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -309,6 +327,9 @@
     <t>We stayed here because we wanted to be near Southern Junction.  We had guaranteed late check in  and arrived very late and found there was no parking available.  When we went to our room,  we found that the room key did work. After reporting this to the desk clerk,  she went back upstairs with us and we discovered the room hadbeen broken in to, and both bed and bathroom had been used. At first the desk clerk said there were no more rooms available.  However, she did manage to find one for us after a tense waiting time at 2 am  trying to decide what to do when "there is no room in the inn;"  the Holiday Inn, anyway.  More</t>
   </si>
   <si>
+    <t>Amber B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r491963234-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -336,6 +357,9 @@
     <t>Gloria was awesome! She made sure my bridal party and I were satisfied with our breakfast. She was very sweet and I really appreciated it. Helped me gain a little bit of sanity for my big day. It was really exciting to have a little sense of ease with my big day arriving.More</t>
   </si>
   <si>
+    <t>familyoffourkansas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r488033693-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -363,6 +387,9 @@
     <t>We got in late and the front desk was very kind &amp; helpful! The hotel is older and our room appeared to have some water issues with containers under the air conditioner. The breakfast was good for a quick grab &amp; go. The pool looked nice, but we didn't have the chance to enjoy it.More</t>
   </si>
   <si>
+    <t>Benjamin A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r483616820-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -387,6 +414,9 @@
     <t>The hotel was very comfortable. The front desk clerk, Rossy, was delightful, always smiling, she made all of us feel right at home. She made herself available to us any time we were in the lobby.  She was very helpful in directing us to any places, events, and activities that we searched for during our stay. What Excellent customer service!More</t>
   </si>
   <si>
+    <t>qqslick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r480164569-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t>Rossy at the front desk needs a raise..  She is great and very helpful. She worked at the breakfast area, with a broom where needed and what ever needed attention.  The breakfast was very good  Good location with easy access to I-30 and area restaurants.More</t>
   </si>
   <si>
+    <t>shannoncA3326QN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r477571368-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -438,6 +471,9 @@
     <t>Best hotel in Royse City easily accessible near I-30 - and two exits from football stadium.  Recently opened so new furnishings and linens.  Nearby to restaurants, fast food, donuts, gas station and church.  More</t>
   </si>
   <si>
+    <t>Alex O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r477383901-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -459,6 +495,9 @@
     <t>The front desk lady named Rossy was an extreme help for me and my grandfather. She helped us with whatever we needed all night and helped us find the best room for both of us. The breakfast was amazing and I had lovely service with these lovely woman. 11/10 for me More</t>
   </si>
   <si>
+    <t>Fidel Jr. M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r473287762-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -483,6 +522,9 @@
     <t>Hotel has it all, from the affordable prices to the wonderful staff. Spacious rooms, recognized of your membership, great breakfast, great location, you have from shopping to great dining within minutes around you. But what keeps us coming back is the wonderful, curtious, accommodating, always in a happy smiling mood Rossy, she will do whatever it takes to make your stay the best ever. She is the greatest customer service person ever. Thank you Rossy.More</t>
   </si>
   <si>
+    <t>stevenpcarrell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r470419884-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -510,6 +552,9 @@
     <t>First of all the staff here is great. Breakfast is the usual standard free breakfast but it works. When we arrived we were in a hurry to get to a baseball game. When we walked into our room it smelt strongly of mildew. Because we were in a hurry did not give this a second thought. When we returned late that night and got ready for bed found that the floor all down the wall was soaked in water from Ac unit leaking on floor. Oviously they knew about problem because we found a bowl under unit catching water but had overflowed and soaked the floor. We travel lot for baseball and always stay at holiday inn and will continue to do so. Staff is always friendly a most locations. Will not be detoured by one bad experience. More</t>
   </si>
   <si>
+    <t>Alfredo G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r469619176-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -537,6 +582,9 @@
     <t>They have a big options in the breakfast menu. And Very Delicious!! Very pleasant , helpful and super honest stuff !!!!! We've stayed in the hotel for few nights and had very pleasant experience. Recommend it!More</t>
   </si>
   <si>
+    <t>blulifesaver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r423677573-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -564,6 +612,9 @@
     <t>We ended up here kind of unexpectedly and we were both amazed. It was very clean, smelled pleasant and the customer service was simply Amazing. We had a rush trip to help family all the way across the MetroPlex when a vehicle broke down. We forgot everything, toiletries, a change of clothes end everything. Ms. Rosie was wonderful, she helped us so much we felt we were staying with family. We invited her to go with us because she treated us so much like family we hated to leave her behind.More</t>
   </si>
   <si>
+    <t>Vicki4664</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r415849793-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -588,6 +639,9 @@
     <t>All of the employees at this Holiday Inn Express are wonderful.  They go out of their way to make your stay pleasant.  They made sure all of the wedding party family were on the same floor with the rooms of their choice.  When it rained and there were crickets everywhere, they made sure the pool was cleaned and ready to use.  The breakfast people were friendly as well.  The rooms were very nice and clean.  The housekeeping staff were also very friendly.  This hotel gets an A for customer service!!!More</t>
   </si>
   <si>
+    <t>Rhonda L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r399392015-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -606,6 +660,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Rocker_rep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r398223458-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -630,6 +687,9 @@
     <t>Its the little things that make a difference. This HIX is outside the Dallas metro area, with rates that match it's location. Area is okay, and seemed safe. But there were lots of little things that added up making it just average. As rewards gold, I asked for upper floor &amp; was given ground floor. Elevator didn't work anyway. The room had some worn items needing replaced. There was not a luggage rack and just a very worn out bench for one suitcase. No arm chair, only a chair at the table-desk. Very limited lighting and difficult to read with only two lamps in the room. No laundry bag in the closet, and no lotion in the bathroom. Breakfast is the usual, good HIX fare &amp; attendant Gloria was friendly and helpful.More</t>
   </si>
   <si>
+    <t>retiredlady07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r390556170-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -654,6 +714,9 @@
     <t>This looks like a typical clean nice Holiday Inn Express, but when we walked into our room, it smelled dirty. The lavatory needed plunging. Just a quick wash of your hands and it held the water. Could not get hot water in lavatory. Called the front desk and was informed the hot water heater was on 4th floor, so it had to run for a while. I could not let it run that long in lavatory for over flowing, so had to turn on the tub faucet to get hot water finally to bathroom.  The air conditioner would not stay on long enough to cool the room, so it was a hot night.  It was around 8:00 pm when we checked in and was very tired. Just didn't realize all this until getting ready for bed. Were put in a ground floor room on highway side. Interstate noise could be heard. More</t>
   </si>
   <si>
+    <t>CarlyCorinthos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r380585650-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -681,6 +744,9 @@
     <t>Nicest hotel in Royse, TX - nice rooms, great breakfast. I had to use the business center and it meet my needs. The roads leading to the hotel were bad and under construction. Hopefully the construction going on will be cleared up soon.More</t>
   </si>
   <si>
+    <t>Elliot63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r373712130-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -708,6 +774,9 @@
     <t>I CHECK IN AND WAS Told my debit card was not approve ,did not think that was possible ,but gave the man my other debit card, so now I am charge a higher price then my on line rate. so after leaving for a quick lunch ,I notice that the charge on the first card did go thru  (which is knew was good) after tell the man at the desk that he just said it would adjust it self the next day.so the next day come and I look at my account and no money ,but now they have charge me again for the room from the card he said did not work. totaling $359.00 for a room. I really fell that between the high cost for this room and not knowing the real rate I got on line my work was cut out for me trying to recoup my money,  as of today I am still out $100.00 more then my room rate ,and made to feel that I was not able to paid for a room even tho I had all the funds.SO IF YOU NEED EVER penny you saved for your trip ,did stay here they clearly do not know how to run a card thru there systemMore</t>
   </si>
   <si>
+    <t>Evelyn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r371806706-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -732,6 +801,9 @@
     <t>We spent one night on are way home through Texas and enjoyed our stay.  Check-in was quick, the hotel was quiet, and our room was larger than the average hotel room and had a microwave and fridge.  The hotel has nice common areas (loved the waterfall), a business center, and a pleasant breakfast area. Gloria who worked the breakfast, was very friendly, asking if we needed anything. We did not like the plastic mattress cover on one of the beds, but we only needed one bed so that was not a problem.  We also thought the room had insufficient lighting.  It was hard to read the paper in our room.  We would stay here again if we needed to be on the east side of Dallas and its traffic.More</t>
   </si>
   <si>
+    <t>kameronearles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r357798915-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -756,6 +828,9 @@
     <t>My in-laws have stayed here a few times while in town &amp; they always enjoy it. They have 2 dogs &amp; they are not only allowed but are welcomed with treats. Rooms are spacious &amp; clean and the staff are welcoming.More</t>
   </si>
   <si>
+    <t>Nate M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r356433769-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -783,6 +858,9 @@
     <t>Stayed here for a few days while in town to visit some family. Room was well kept and amazingly spacious. They allow pets for an additional charge which was great for my grandmother and her dogs. Free breakfast was standard for the holiday inn express chains.More</t>
   </si>
   <si>
+    <t>Rubyreddnc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r306495253-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -810,6 +888,9 @@
     <t>Staff was friendly and welcoming.  Room clean and nicely decorated. Very comfy bed and linens.   Nice quiet room. Pleasantly surprised by the condition of hotel.  Nice breakfast area with many breakfast options both hot and cold.  Will surely stay again when traveling.More</t>
   </si>
   <si>
+    <t>Lisa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r302552167-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -834,6 +915,9 @@
     <t>This hotel from the start had a homey feel. The staff was very friendly  and professional, and were very happy to help with anything. The hotel it self was very clean and spacious  rooms. We stayed  in one of the double  bed  suites. The only thing I can say, have a goodnight More</t>
   </si>
   <si>
+    <t>mem212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r302340548-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -852,6 +936,9 @@
     <t>Nice new place. Great staff, well maintained, centrally located. The breakfast was a step up from other hotels in this and other chains. Gloria runs the breakfast area and does a a tremendous job. She takes great pride in her work and it shows. She is a great asset to this hotel.More</t>
   </si>
   <si>
+    <t>F P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r299015041-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -900,6 +987,9 @@
     <t>It's a Holiday Inn Express, so you know what to expect. This one was clean, the room was in good shape and the beds were comfortable. Service was good, the complimentary breakfast had plenty of offerings, the pool was larger than average for this brand. Highly recommended if you need a place to stay off the I-30More</t>
   </si>
   <si>
+    <t>glennjam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r288645329-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1017,9 @@
     <t>Very well appointed room....extra cold a/c... Comfortable bed, nice shower! Stayed the night after a wedding! Very nice front desk clerks, close to gas station that carry snacks and beer &amp; wine! Small fridge in rooms, coffee maker, free breakfast included! Would stay againMore</t>
   </si>
   <si>
+    <t>Stephanie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r287630742-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1044,9 @@
     <t>My fiancé and I stopped at this hotel while on vacation. The location was perfect and right off I-30 so it was very easy to get to places we needed to go. The hotel was neat, clean, and the staff was very generous. The main thing I look for when I stay at hotels is the cleanliness of the room and was very pleased with this one. Also, I found that this holiday inn express is more new and modern than others I have stayed at. This was a big plus for us and we really enjoyed our stay as we thought it was more than comfortable. We will definitely be coming back when in town again.More</t>
   </si>
   <si>
+    <t>65jwt2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r278722221-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -975,6 +1071,9 @@
     <t>Checked in for one night only traveling I30.  Won't stay there again.  Checked in Sunday night between 9:30-10:00 pm.  No one was at the front desk when we arrived &amp; when she did come out to help us, she was not attentive nor friendly, seemed like we were interrupting something, (same was true of the morning clerk).  We were fully checked in, (on the 3rd floor), before we were told the elevator was not operational, we had to inquire to be told the only available rooms were on the 3rd &amp; 4th floors.Looks to be a fairly new hotel but the feel is that it's not being taken care of.  Carpets looked like they hadn't been vacuumed in days, both in the hallways &amp; especially the stairwells although the room seemed okay.More</t>
   </si>
   <si>
+    <t>LoneStarReader</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r278121659-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1098,9 @@
     <t>We stayed here for a few days while visiting family in the area.  We were pleased with the clean room and up to date facilities and how quiet it was.  Our room was very near the elevators but we were never bothered by any noise.  The breakfast is fairly standard fare for this kind of hotel.  The staff worked hard to keep the offerings well stocked.  Management was very responsive to any concerns.  One advantage this hotel has over others in the area is the easy access to I-30.  It sits practically at a cross road to the interstate so you can come and go and access the freeway, east or west, without signals or long u-turns down the feeder road.  Traffic is also less than other hotels west of Royce City.  We found the easy access to fuel and the McDonalds across the freeway very helpful as we came and went.More</t>
   </si>
   <si>
+    <t>catbertcool</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r275138781-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1128,9 @@
     <t>Breakfast was great for a hotel buffet.  More room than most in the breakfast area.  Front desk staff went out of their way for us with a reservation issue and with any request that we had.Clean room and there was a good 'feel' if you will in both the room and the hotel.  If in the area again would definitely stay there again.The only recommendation would be for them to ensure if four were in a room that there would be four sets of towels, etc. rather than just three.More</t>
   </si>
   <si>
+    <t>jhoffman9544</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r259397675-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1185,9 @@
     <t>Had to stop here this week due to the snow. Great front desk staff and manager. Breakfast was great and the staff was there to make sure we had enough to eat and that it was delicious. Room was the best room I have stayed in. Great price. Recommend highly.More</t>
   </si>
   <si>
+    <t>Jpeacovk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r255296070-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1215,9 @@
     <t>I am writing this review to retract my previous review.  We stayed here for a wedding last summer, the stay was great and we had no issues with the room, food, or service.  We originally assumed a bag we accidentally left behind was stolen because we reported it left behind to management after we checked out and gave them our contact info. Later that day, we received a phone call saying the bag was found.  6-7 weeks went by with no bag returned or communication from the hotel staff and it turns out there was a miscommunication between either us and UPS or the hotel and UPS.  In any case, we received our bag fully intact with all contents.  I can fully endorse this hotel and I apologize to them for not commenting sooner.More</t>
   </si>
   <si>
+    <t>405cindyrs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r253442467-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1239,9 @@
     <t>The young lady at the front desk was polite. She was only doing her job. We are a Gold Elite priority club member. I have stayed here several times and always got an upgrade. We will be here for nine days and no upgrades. The manner of this hotel needs work. Next time in Texas I will go elsewhere.More</t>
   </si>
   <si>
+    <t>TaylorMcCloure</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r244563039-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1266,9 @@
     <t>I had a great one night stay at this hotel, and there staff was very friendly! They were out of standard rooms so they gave us a suite for the same rate, which was very kind of them. I also liked the location, and the price, of it. More</t>
   </si>
   <si>
+    <t>threepuppies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r230764427-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1179,6 +1296,9 @@
     <t>We stayed one night as part of a wedding party.  Room was comfortable.  A bit worn around the edges but overall ok.  We arrived early in the day so that we could all spend time around the pool talking and enjoying each others' company.  That was not possible.  The pool was horrible!!!  Green, murky and trash floating in it.  Very disappointing.  Breakfast was also disappointing.  Even the apples were yucky and mealy.  We met a man in the elevator.  He had a chair from his room with him.  It had a big spot of something gunky dried onto it.  He had been waiting two weeks and daily asking for the hotel to replace it, he was finally taking it down to the front desk himself.  I would not recommend this hotelMore</t>
   </si>
   <si>
+    <t>RHEN2B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r224885248-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1323,9 @@
     <t>Very friendly and most helpful.  Welcoming and go beyond the normal realms to help their guests.  Very clean and also provide full breakfast. Clean pool and clean workout room is available.  Staff and guests are friendly and supportive of one another.  Staff is very knowledgeable of surrounding area and goes over and beyond what they have to.  Sherry Lynn has a heart of gold and makes everyone feel like family.More</t>
   </si>
   <si>
+    <t>Pam S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r223293750-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1227,6 +1350,9 @@
     <t>Everyone at the hotel was very nice and helpful. Breakfast was good, room was clean, beds very comfortable. Had a very good experience. The hotel was very clean. Pool area was clean and nice. Would recommend this hotel, we will stay here againMore</t>
   </si>
   <si>
+    <t>883ashleyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r222469368-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1251,6 +1377,9 @@
     <t>HelloI recently visited this hotel and the manager Sherrie Lynn and Brittany and Staff were incredible. They were so welcoming and willing to help with any and all requests of my large family. I have been to many hotels and never even met directors or managers and only met staff by name tags, but this hotel made kind conversation and gestures and made me feel a part of the hotel family. I pray that Holiday Inn Express keeps and promotes Sherrie Lynn and all staff because they all showed genuine customer service and welcoming hearts. This is truly a home away from home!! Also for the room experience: The rooms are large and extremely clean and the hotel decor is beautiful and the climate control is awesome and the beds, linens, pillows make you never want to leave and the bathrooms are extravagant. The breakfast and all other amenities are awesome as well! Also the prices are great and in budget.ThanksAgainHoliday Inn Express in Royse CitySherrie Lynn- Brittany and StaffMore</t>
   </si>
   <si>
+    <t>MattDunks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r221141358-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1419,9 @@
     <t>Huge room with King bed at a super price. Very clean and modern with a very helpful staff. Some early morning traffic noise from nearby Interstate. Travelers will be happy they stayed at this wonderful hotel that leaves enough $ left to explore the Dallas area.More</t>
   </si>
   <si>
+    <t>BgoodLaVerne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r220558477-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1314,6 +1446,9 @@
     <t>The staff was friendly and knowledgeable. The hotel is one of the newer hotels in the area. The bed was comfortable and they had just gotten new pillows. The breakfast included the usual cereal and muffins in addition to scrabled eggs, sausage, biscuits and gravy. There was a pancake machine that made hot pancakes with the push of a button. The pool was clean and well cared for. The pool furniture needed a little repair and the spa was not working. Other than that our stay was great.More</t>
   </si>
   <si>
+    <t>Lfferg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r220437569-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +1464,9 @@
     <t>We are Platinum Elite IHG members, so we stay at IHG properties ALOT all over the country.  This property was up to the normal standard with the physical property itself.  Our room was cool, comfortable, and clean.  (The big three C's!) The breakfast was just ok.  We have stayed at many that go above and beyond with different options.  This one does just the minimum required and most everything appeared to be on the verge of running out when we were there.  The main reason we gave this three stars and not four was our experience with the staff.  When we checked in we were not offered the 500 points for being Platinum and there was no small welcome packet either.  If we didn't stay exclusively at IHG, we wouldn't know what other properties do.  But almost every property goes above and beyond to recognize loyalty. Then the next morning not a single one of the four staff members spoke to anyone coming to breakfast or leaving the hotel.  Everyone seemed to be a bother to the staff who were on at the time.  The only bright spot was the lady servicing the breakfast.  She did finally speak and ask if our breakfast was ok. If we needed to stay here again, we would because the property was again just fine.  But the staff definitely needs hospitality training to be on par with most other IHG. More</t>
   </si>
   <si>
+    <t>Larry D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r219768811-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1353,6 +1491,9 @@
     <t>We thoroughly enjoyed our four night stay here. The rooms are very well appointed, the beds were extremely comfortable and the bathrooms were very spacious. The breakfast was outstanding with multiple choices, which included hot eggs, bacon or sausage, biscuits and gravy as well as a pancake machine that produced fresh hot pancakes.  The best part of our stay was the very friendly and helpful staff at the front desk as well as at breakfast and housekeeping.More</t>
   </si>
   <si>
+    <t>Jennifer C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r219507812-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1371,6 +1512,9 @@
     <t>This hotel provided a great, clean and comfortable room on a long trip. Breakfast the next day was very good and filling. Staff was very nice and we would stay there again on our next trip through that area.More</t>
   </si>
   <si>
+    <t>James S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r218446251-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1416,6 +1560,9 @@
     <t>My wife and I stayed here for a weekend for a friend's wedding.  The room was nice and service was ok, but we accidentally left a $200 overnight bag hanging on the back of the bathroom door when we checked out.  We noticed it was missing about 2 hours later on our way home and contacted the hotel immediately.  I told the guy at the front desk that it was definitely hanging on the door and that the only way it could be missing or not found is if the maid took it and didn't turn it in.  He told me to call back later and check to see if it had been turned in.  I called back early in the evening and he told me it was found and he put it "in the mail" to us.  Almost 4 weeks have gone by and we still haven't received it "in the mail".  He lied about finding our bag so we wouldn't complain about the theft and so he could blame it on the USPS like it was their fault.  The bag was our responsibility to begin with but guests would hope this kind of thing would be handled honestly and professionally.  This hotel has a dishonest and shady maid crew and office staff and we will not be returning.More</t>
   </si>
   <si>
+    <t>Dana S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r213292064-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1443,6 +1590,9 @@
     <t>I don't know where to begin.  Kerry was very helpful in setting up the block of rooms for our wedding guest. The rates were the best I found.  My mom and I were able to tour the hotel a couple of weeks before the guest arrived. I was very impressed with the rooms.  Very clean, beds were comfy and the front desk staff was really nice.  I have to say the Mark Shook, GM went above his duties to make sure our guest were well taken care of.  Sherrie Lynn, Director of Marketing Guest Relations was a great help too.  Thanks again to the staff for making this a great weekend for you family and friends.More</t>
   </si>
   <si>
+    <t>Elisabeth Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r209721336-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1461,6 +1611,9 @@
     <t>Holiday Inn Express is probably the nicest if not only hotel you will find in Royse City. The staff was friendly and the room's were really nice. We were unexpectedly put in a "handicap" room which was spacious. I was most impressed with the bed; amazingly comfortable and the pillows were like clouds. I wish we stayed more than one day just so I could sleep in the bed again. The complimentary breakfast was good and check-out was easy!More</t>
   </si>
   <si>
+    <t>Chad H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r209015700-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1482,6 +1635,9 @@
     <t>We were in the process of moving, myself, wife and three kids and our little dog.  Needless to say it was a very stressful week and we needed a place to stay before flying to Oregon for our move.  I am so glad we chose this hotel.  The staff was amazing!  Better than most high-end hotels for double the price.  The rooms were great also and the breakfast was wonderful.  Thank you to the team for helping us during our transition...the team even helped with a dilema we had when our auto-shipper cancelled on us at the last minute.Excellent hotel.  Definitely stay here if you can.More</t>
   </si>
   <si>
+    <t>rnlmcs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r191831626-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1512,6 +1668,9 @@
     <t>I have stayed at Holiday Inn Express twice, for extended stays, in the last six months.  I was in the area to visit my daughter and her family following the birth of my first beautiful grandson. I have been very happy with the room, cleanliness and personalized service. I really appreciated the large refrigerator and microwave in the room.  I only wish they had a bar. The only negative thing I have to say is regarding the linen. The towels and sheets could be a little bit nicer. The front desk folks were very helpful. Breakfast is very nice and served at proper temp. I also suggest hand sanitizer be placed on buffet. The buffet is overseen so when people touch food it is removed.More</t>
   </si>
   <si>
+    <t>Lesley P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r191614787-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1539,6 +1698,9 @@
     <t>This is the second time we have stayed at this property. In the past year the cleanliness, maintence of the facility, and quality of the breakfast has dramatically declined. Our room was very dirty and in the two rooms we stayed in someone had deliberately taken the shower heads and turned them outwards causing them to spray the whole bathroom and wet clothing.  The property has one elevator and on the day we checked out it wasn't working properly resulting in us having to lug all of our baggage down three flights of stairs.  When we complained to the Front Desk they apologized but did not offer an other type of compensation for our problems.  Additionally, if you decide to stay at this property I would highly recommend that you request to be on the side of the hotel away from the interstate as it is very noisy.  To the front desk manager's credit he was helpful in honoring a move after our first sleepless night to the other side of the hotel so that we could try to get some sleep.  However, we will not be staying there next year for our annual event.More</t>
   </si>
   <si>
+    <t>tomthbomb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r189930870-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1563,6 +1725,9 @@
     <t>We stayed here the last three Christmas holidays. We have family close.The property is clean and well maintained. The front desk attendant was a little curt but hey, he was working on Christmas Eve.Two small negatives:No room upgrade allowed (room paid for with IHG Priority points of which I have about 400k).The pillows leave a lot to be desired.Over all I do not hesitate to recommend this hotel. It has been consistently good the last four or five years.More</t>
   </si>
   <si>
+    <t>Karen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r186789755-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1587,6 +1752,9 @@
     <t>We like Holiday Inn Expresses, the cinnamon rolls in the morning are a favorite for my husband and there's generally enough there that I (gluten sensitive) can happily eat.  An egg, some fruit, a cup of coffee and I'm good to go.  The egg was there and fine, the coffee fair but hot and caffeinated.  No fruit.  No apples, bananas ... nothing. I was disappointed.The water tastes like a fish tank.  The in-room coffee is about what you'd expect.  It's pod coffee, only for emergencies in my opinion.  I far prefer a cup of tea.  They only left one bag.Those are all the negatives.  The bed was wonderful!!!  Perfect and I slept very well (except for the construction right outside our window) but the bed was terrific.  My husband thought it was a bit soft, but I loved it!  Add that to a hot shower ... all the rest is forgivable.  I'm going to learn to pack my own tea I think.More</t>
   </si>
   <si>
+    <t>earlschieb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r185090613-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1614,6 +1782,9 @@
     <t>Checked the rate on this place online, HEI said $85, they wouldn't honor that, said it was wrong, $90 was the best they would do. And, I imagine they wonder why the parking lot is empty at night?TV channel choices was TERRIBLE, room was good. Breakfast was cold and tasteless.More</t>
   </si>
   <si>
+    <t>Joanne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r182161685-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1641,6 +1812,9 @@
     <t>Stayed at this hotel for 7 days - staff extremely courteous, helpful, eager to please.  Room very clean.  Would stay here again.  Their location was very good for me as I visited friends and family in Dallas, Rockwell, and Greenville, TX.More</t>
   </si>
   <si>
+    <t>Gary L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r177765398-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1668,6 +1842,9 @@
     <t>Stayed at this hotel in Sept. 2013.  The property was reasonably new.  Typical Holiday Inn Express.  Maintenance in room was not great.  Leaking toilet, cosmetic maintenance not repaired.Front desk clerk did not know area restaurants to recommend anything.More</t>
   </si>
   <si>
+    <t>MalakoffMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r177267820-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1692,6 +1869,9 @@
     <t>The staff at this location could not have been more wonderful! We had several special requests and they did not hesitate to be sure we were well taken care of. A friendly atmosphere is important to me and everyone from the manager, Sam, to the cleaning staff and breakfast hostess were welcoming. The lobby is very pretty, the room was crisp and clean. The bedding was so comfortable, with plenty of fluffy pillows. We  will most definately be staying here when we are back in the area!More</t>
   </si>
   <si>
+    <t>5Beehive</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r175569965-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1713,6 +1893,9 @@
     <t>Our experience at this hotel was good. It was clean and quiet. We enjoyed our stay. We did not stay but one night, but on a weekend it was all we expected. The beds were comfortable and the bathroom well stocked. The breakfast was good as well. All in all a good hotel experience and we would stay here again. Thanks!BBMore</t>
   </si>
   <si>
+    <t>KenS9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r168047009-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1740,6 +1923,9 @@
     <t>Hotel is about 30 miles east of Dallas on I-30. Hotel is clean and comfortable with a friendly staff. Braakfast is typical Holiday Inn Express offering. Fitness room only has a bicycle, elliptical and treadmill - nothing fancy. Pool gets nice afternoon sun, so the water is very nice and sunbathing is aso possible. If you are staying in this area, I would recommend this hotel.More</t>
   </si>
   <si>
+    <t>Amelia L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r164550515-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1761,6 +1947,9 @@
     <t>I stayed here for three nights in one of their very spacious suites. Their staff was welcoming at check in and very friendly through out my stay. Breakfast has a great selection and friendly breakfast attendent. The hotel itself is quit new and very well kept. I stayed here on a business trip but would deffinately recomment it for family travel as well! If you're driving by and need a place to stay the night THIS IS IT!More</t>
   </si>
   <si>
+    <t>jsmiths56003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r164378866-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1779,6 +1968,9 @@
     <t>For my daughter's wedding last weekend, we booked 23 rooms from 1 night to 4 nights.  Our group varied in age from young children to grandparents.  The hotel went out of their way to provide for our needs and there was not a single complaint from anyone.  The complementary breakfast was excellent and the use of the meeting room for usto visit was an added benefit.  The staff was always friendly and responded to our requests quickly and efficiently. We found the rooms and the entire hotel area to be clean   If you are in the area, this hotel won't disappoint.More</t>
   </si>
   <si>
+    <t>Mark T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r160980971-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1821,6 +2013,9 @@
     <t>We stayed here last month and the excellent customer service and clean hotel was a welcome sight after our long drive. The rooms were spacious and very neat and the staff was very courteous and polite. Also, they have a really good complementary hot breakfast! My family and I had an extremely good experience and will definitely stay here again - have already recommended this hotel to many of my friends.More</t>
   </si>
   <si>
+    <t>bigred1972</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r154402138-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1848,6 +2043,9 @@
     <t>I was in the area doing some car shopping and booked a stay at the Holiday Inn Express. I called to let them know that I would be arriving late. Upon arriving at the hotel I was greated very nice by the associate Gabby, she welcomed me as a Priority Club Gold member and upgraded my room to a king sweet. She was great! The hotel grounds were clean and well kept and the front area was spotless and smelled good. Gabby put us on the top floor away from the elevator and on the back side away from I-30 where she said we would have no road noise.  The room was nice, clean comfortable and had everything we needed. The bathroom was large and clean. The refrigerator was a little noisy and the A/C was as well. The breakfast was just OK. The area around the hotel did not consist of much, a gas station, a Mcdonalds, a carry out Pizza Hut. You pretty much have to go in to Rockwall to have any options for eating or shopping, around 12 miles. I would have to say the stay met my expectations and the staff expecially Gabby exceeded them.More</t>
   </si>
   <si>
+    <t>Supernova684</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r576329681-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1875,6 +2073,9 @@
     <t>Traveling from Texas back home to Memphis and got tired...Booked this hotel on a whim. So glad I did. Check in was fast and easy (Booked online and Room was already prepared). Rose, at the front desk, was very sweet and helpful. The cleanest hotel I have ever experienced. I always have a phobia about hotels and cleanliness. Not this time! This was the first time I have ever sleep under the covers at a hotel, and slept comfortably at that. I love the little Bath and Body Works products they had in the room. Free continental breakfast available...free parking. Very quiet.More</t>
   </si>
   <si>
+    <t>737openroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r562804665-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1902,6 +2103,9 @@
     <t>Standard hotel. My mattress was not great &amp; curtains a bit worn but great breakfast! Single elevator crammed at peak check out time so plan for that if you are in a hurry. Fitness center bare minimum but equipment good.More</t>
   </si>
   <si>
+    <t>alexandragrant8229</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r555720941-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1929,6 +2133,9 @@
     <t>Check-in was 1/11/18 and check-out was 1/15/18. We checked in to the queen suite, pet friendly, room in the early evening after a 5.5 hour drive from Kansas. At first glance everything seemed to be in order. We were given linens for the pull out couch/bed in the 2 queen suite and an extra 2 towels as I requested. I emptied out suit cases and put things away, set our large dog kennel for our cavalier king charles spaniel near the window by the wall, and began looking for a place to get dinner for the evening once we checked out the location of the pool in Rockwall where we would be spending the weekend. I noticed the dog going under the padded valet and sniffing around, and then look to be chewing on something. I immediately cried out for my son to grab him so we could remove from his mouth what he had gotten into. To my alarm, he had a large chocolate cover pretzel in his mouth. He had fortunately not taken a bite of it yet, but I was horrified that he could have and become very ill. We discarded the pretzel and decided to discuss it with the manager in the morning. My husband and I went to Rockwall and left our son with the dog at the room. When we returned, had eaten, and were getting ready to go to bed, we pulled out...Check-in was 1/11/18 and check-out was 1/15/18. We checked in to the queen suite, pet friendly, room in the early evening after a 5.5 hour drive from Kansas. At first glance everything seemed to be in order. We were given linens for the pull out couch/bed in the 2 queen suite and an extra 2 towels as I requested. I emptied out suit cases and put things away, set our large dog kennel for our cavalier king charles spaniel near the window by the wall, and began looking for a place to get dinner for the evening once we checked out the location of the pool in Rockwall where we would be spending the weekend. I noticed the dog going under the padded valet and sniffing around, and then look to be chewing on something. I immediately cried out for my son to grab him so we could remove from his mouth what he had gotten into. To my alarm, he had a large chocolate cover pretzel in his mouth. He had fortunately not taken a bite of it yet, but I was horrified that he could have and become very ill. We discarded the pretzel and decided to discuss it with the manager in the morning. My husband and I went to Rockwall and left our son with the dog at the room. When we returned, had eaten, and were getting ready to go to bed, we pulled out the pullout couch bed and I began to make it. What I saw about made me ill. The mattress was lopsided and stained beyond imagination. I lifted the mattress to maybe flip it and was even more shocked by what I saw. Stuck to the bottom side of the mattress was some greyish, purple glop of some kind of food item. Added to that, there was a blister pack of some orange gel capsules that was also crushed and stuck to the mattress though most of the medication was still intact. It was late by now and I imagined the hotel manager would not be in at that time, so we closed up the bed and my son slept on my bed with our dog. The next day I asked the manager to come up to our room and instead he sent up a floor manager. I showed her the pull-out and informed her about the chocolate. She asked if we wanted to change rooms and I told her I wanted it fixed and cleaned. I asked for a new mattress and new linens as well. She in turn sent up a housekeeper, who removed the bed, picked off the disgusting food and medication off the underside of the mattress and then proceeded to swipe the remaining crumbs and dirt to the floor. She had the nerve to ask if I wanted it vacuumed up. I told her I just wanted everything cleaned up and she left the room. She later came back with a chair I had asked for but never came back to clean the carpet. My son picked every little crump off the floor so our pet would not get into it. Now on to the bathroom. The bathroom floor was angled and caving into like a bowl. The vanity/sink front legs did not touch the floor it sloped so badly, and on one of the front legs, there was some kind of rubber cap or washer placed under it as if in attempt to gap the distance from the bottom of the leg to the floor. The other leg was just hanging in the air. The tub grout was spread with what must have been a finger and had holes, gaps, and similar pockets all along the tub wall and the two corner shelves that were made from the same tile as the walls. There was visible mold and mildew in all these areas, something bleach could simply cure and remedy. It was so disappointing and such a bad experience, that we will never again stay at a holiday inn hotel of any kind. We do not normally frequent this chain, but this one particular weekend, we had to bring our pet and had no other choice. None. We are not used to staying in such deplorable conditions, and would not recommend it to anyone either, and especially if you value the health of your pet and family. Book elsewhere!More</t>
   </si>
   <si>
+    <t>Gina H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r549524312-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
   </si>
   <si>
@@ -1954,6 +2161,9 @@
   </si>
   <si>
     <t>We came through in early Dec and stopped randomly for the night. Rossy was working the front desk  and was beyond pleasant to make sure we were comfortable. I wish I could hire her. Holiday Inn has a jewel there. If ever I'm going back through there, I would stay just to experience her hospitality. It's something that the Hospitality business lacks... Everywhere... but where Rossy is.More</t>
+  </si>
+  <si>
+    <t>arod484753</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56590-d1197226-r538895064-Holiday_Inn_Express_Hotel_Suites_Royse_City_Rockwall_Area-Royse_City_Texas.html</t>
@@ -2483,43 +2693,47 @@
       <c r="A2" t="n">
         <v>58442</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>156082</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2533,50 +2747,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58442</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>156083</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2588,56 +2806,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58442</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>156084</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2649,56 +2871,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58442</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>156085</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2710,56 +2936,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58442</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>156086</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2771,47 +3001,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58442</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>156087</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
@@ -2828,56 +3062,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58442</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>572</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2889,56 +3127,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58442</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>156088</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2950,56 +3192,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58442</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>68984</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>119</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>111</v>
-      </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3011,56 +3257,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58442</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>156089</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3076,56 +3326,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58442</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>156090</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3137,56 +3391,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58442</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>156091</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3198,56 +3456,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="X13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58442</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>156092</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3259,56 +3521,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58442</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>156093</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3320,56 +3586,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="X15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58442</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156094</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3387,56 +3657,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58442</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>156095</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3450,56 +3724,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58442</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>156096</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3515,56 +3793,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58442</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>41216</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3578,50 +3860,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58442</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>156097</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3637,56 +3923,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58442</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>30281</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3698,56 +3988,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="X21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58442</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>156098</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="J22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3763,56 +4057,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58442</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>156099</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3830,56 +4128,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58442</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>13944</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3897,56 +4199,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58442</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>156100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3958,56 +4264,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58442</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>156101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4023,56 +4333,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="X26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58442</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>156102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4088,56 +4402,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="X27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Y27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58442</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>9071</v>
+      </c>
+      <c r="C28" t="s">
+        <v>290</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="J28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4149,56 +4467,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="X28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="Y28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58442</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>156103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>299</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4214,56 +4536,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="X29" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="Y29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58442</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>156104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>306</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="L30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4279,13 +4605,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="X30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="Y30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31">
@@ -4298,37 +4624,37 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="J31" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4344,56 +4670,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="X31" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58442</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>128271</v>
+      </c>
+      <c r="C32" t="s">
+        <v>323</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4405,56 +4735,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="X32" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="Y32" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58442</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>25599</v>
+      </c>
+      <c r="C33" t="s">
+        <v>333</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="J33" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="L33" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4470,56 +4804,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="X33" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="Y33" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58442</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>156105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>342</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="J34" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="K34" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="L34" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4537,56 +4875,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="X34" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="Y34" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58442</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>156106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>351</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="J35" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="K35" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="L35" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4602,56 +4944,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="X35" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="Y35" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58442</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>156107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>360</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="J36" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="K36" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="L36" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4667,47 +5013,51 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="X36" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="Y36" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>58442</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>156108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>370</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="J37" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="L37" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
@@ -4734,13 +5084,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="X37" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="Y37" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38">
@@ -4753,37 +5103,37 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="J38" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="K38" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="L38" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="O38" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4801,56 +5151,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="X38" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="Y38" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>58442</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>156109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>389</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="J39" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="K39" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="O39" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4866,56 +5220,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="X39" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="Y39" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>58442</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>156110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>399</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="J40" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="K40" t="s">
         <v>38</v>
       </c>
       <c r="L40" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4931,47 +5289,51 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="X40" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="Y40" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>58442</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>156111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>407</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="J41" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="K41" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="L41" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
@@ -4998,56 +5360,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="X41" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="Y41" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>58442</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>156112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>416</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="J42" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="K42" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="L42" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="O42" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
@@ -5065,56 +5431,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="X42" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="Y42" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>58442</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>156113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>426</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="J43" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="K43" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="L43" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5132,56 +5502,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="X43" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="Y43" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>58442</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>7842</v>
+      </c>
+      <c r="C44" t="s">
+        <v>435</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="J44" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="K44" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L44" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5197,56 +5571,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="X44" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="Y44" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>58442</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>156114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>444</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="J45" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="K45" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="L45" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5264,56 +5642,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="X45" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="Y45" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>58442</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>156115</v>
+      </c>
+      <c r="C46" t="s">
+        <v>453</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="J46" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="K46" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="L46" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5329,13 +5711,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="X46" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="Y46" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47">
@@ -5348,37 +5730,37 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="J47" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="K47" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="L47" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="O47" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5396,56 +5778,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="X47" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="Y47" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>58442</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>156116</v>
+      </c>
+      <c r="C48" t="s">
+        <v>467</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="J48" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="K48" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="L48" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5463,47 +5849,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="X48" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="Y48" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>58442</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>156117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>476</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="J49" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="K49" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="L49" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
@@ -5520,56 +5910,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="X49" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="Y49" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>58442</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>15709</v>
+      </c>
+      <c r="C50" t="s">
+        <v>482</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="J50" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="K50" t="s">
+        <v>486</v>
+      </c>
+      <c r="L50" t="s">
+        <v>487</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
         <v>440</v>
       </c>
-      <c r="L50" t="s">
-        <v>441</v>
-      </c>
-      <c r="M50" t="n">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s">
-        <v>399</v>
-      </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5587,56 +5981,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="X50" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="Y50" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>58442</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C51" t="s">
+        <v>491</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="J51" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="K51" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="L51" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="O51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5654,56 +6052,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="X51" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="Y51" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>58442</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>9507</v>
+      </c>
+      <c r="C52" t="s">
+        <v>498</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="J52" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="K52" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="L52" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5719,47 +6121,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="X52" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="Y52" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>58442</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>156108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>389</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="J53" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="K53" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="L53" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
@@ -5786,56 +6192,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="X53" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="Y53" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>58442</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>16456</v>
+      </c>
+      <c r="C54" t="s">
+        <v>514</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="J54" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="K54" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="L54" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="O54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5857,56 +6267,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="X54" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="Y54" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>58442</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>156118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>524</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="J55" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="K55" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="L55" t="s">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5928,56 +6342,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="X55" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="Y55" t="s">
-        <v>480</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>58442</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>11644</v>
+      </c>
+      <c r="C56" t="s">
+        <v>531</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="J56" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="K56" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="L56" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5999,56 +6417,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="X56" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="Y56" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>58442</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>156119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>539</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="J57" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="K57" t="s">
-        <v>491</v>
+        <v>543</v>
       </c>
       <c r="L57" t="s">
-        <v>492</v>
+        <v>544</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>493</v>
+        <v>545</v>
       </c>
       <c r="O57" t="s">
-        <v>494</v>
+        <v>546</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6070,56 +6492,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>495</v>
+        <v>547</v>
       </c>
       <c r="X57" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
       <c r="Y57" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>58442</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>156120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>550</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
       <c r="J58" t="s">
-        <v>500</v>
+        <v>553</v>
       </c>
       <c r="K58" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="L58" t="s">
-        <v>502</v>
+        <v>555</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
       <c r="O58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -6141,56 +6567,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
       <c r="X58" t="s">
-        <v>505</v>
+        <v>558</v>
       </c>
       <c r="Y58" t="s">
-        <v>506</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58442</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>155737</v>
+      </c>
+      <c r="C59" t="s">
+        <v>560</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>508</v>
+        <v>562</v>
       </c>
       <c r="J59" t="s">
-        <v>509</v>
+        <v>563</v>
       </c>
       <c r="K59" t="s">
-        <v>510</v>
+        <v>564</v>
       </c>
       <c r="L59" t="s">
-        <v>511</v>
+        <v>565</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>493</v>
+        <v>545</v>
       </c>
       <c r="O59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6212,56 +6642,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>512</v>
+        <v>566</v>
       </c>
       <c r="X59" t="s">
-        <v>513</v>
+        <v>567</v>
       </c>
       <c r="Y59" t="s">
-        <v>514</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>58442</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>2656</v>
+      </c>
+      <c r="C60" t="s">
+        <v>569</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>515</v>
+        <v>570</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>516</v>
+        <v>571</v>
       </c>
       <c r="J60" t="s">
-        <v>517</v>
+        <v>572</v>
       </c>
       <c r="K60" t="s">
-        <v>518</v>
+        <v>573</v>
       </c>
       <c r="L60" t="s">
-        <v>519</v>
+        <v>574</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>493</v>
+        <v>545</v>
       </c>
       <c r="O60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6273,56 +6707,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>520</v>
+        <v>575</v>
       </c>
       <c r="X60" t="s">
-        <v>521</v>
+        <v>576</v>
       </c>
       <c r="Y60" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>58442</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>156121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>578</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>523</v>
+        <v>579</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>524</v>
+        <v>580</v>
       </c>
       <c r="J61" t="s">
-        <v>525</v>
+        <v>581</v>
       </c>
       <c r="K61" t="s">
-        <v>526</v>
+        <v>582</v>
       </c>
       <c r="L61" t="s">
-        <v>527</v>
+        <v>583</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>528</v>
+        <v>584</v>
       </c>
       <c r="O61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -6344,56 +6782,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>529</v>
+        <v>585</v>
       </c>
       <c r="X61" t="s">
-        <v>530</v>
+        <v>586</v>
       </c>
       <c r="Y61" t="s">
-        <v>531</v>
+        <v>587</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>58442</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>34511</v>
+      </c>
+      <c r="C62" t="s">
+        <v>588</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>532</v>
+        <v>589</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>533</v>
+        <v>590</v>
       </c>
       <c r="J62" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="K62" t="s">
-        <v>535</v>
+        <v>592</v>
       </c>
       <c r="L62" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="O62" t="s">
-        <v>494</v>
+        <v>546</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6415,56 +6857,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>538</v>
+        <v>595</v>
       </c>
       <c r="X62" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="Y62" t="s">
-        <v>540</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>58442</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>3661</v>
+      </c>
+      <c r="C63" t="s">
+        <v>598</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>542</v>
+        <v>600</v>
       </c>
       <c r="J63" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="K63" t="s">
-        <v>544</v>
+        <v>602</v>
       </c>
       <c r="L63" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="O63" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6486,56 +6932,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
       <c r="X63" t="s">
-        <v>548</v>
+        <v>606</v>
       </c>
       <c r="Y63" t="s">
-        <v>549</v>
+        <v>607</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>58442</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>156122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>608</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>550</v>
+        <v>609</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>551</v>
+        <v>610</v>
       </c>
       <c r="J64" t="s">
-        <v>552</v>
+        <v>611</v>
       </c>
       <c r="K64" t="s">
-        <v>553</v>
+        <v>612</v>
       </c>
       <c r="L64" t="s">
-        <v>554</v>
+        <v>613</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="O64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6557,56 +7007,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>555</v>
+        <v>614</v>
       </c>
       <c r="X64" t="s">
-        <v>556</v>
+        <v>615</v>
       </c>
       <c r="Y64" t="s">
-        <v>557</v>
+        <v>616</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>58442</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>156123</v>
+      </c>
+      <c r="C65" t="s">
+        <v>617</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>559</v>
+        <v>619</v>
       </c>
       <c r="J65" t="s">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="K65" t="s">
-        <v>561</v>
+        <v>621</v>
       </c>
       <c r="L65" t="s">
-        <v>562</v>
+        <v>622</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>563</v>
+        <v>623</v>
       </c>
       <c r="O65" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6628,56 +7082,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>555</v>
+        <v>614</v>
       </c>
       <c r="X65" t="s">
-        <v>556</v>
+        <v>615</v>
       </c>
       <c r="Y65" t="s">
-        <v>564</v>
+        <v>624</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>58442</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>156124</v>
+      </c>
+      <c r="C66" t="s">
+        <v>625</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>565</v>
+        <v>626</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>566</v>
+        <v>627</v>
       </c>
       <c r="J66" t="s">
-        <v>567</v>
+        <v>628</v>
       </c>
       <c r="K66" t="s">
-        <v>568</v>
+        <v>629</v>
       </c>
       <c r="L66" t="s">
-        <v>569</v>
+        <v>630</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>570</v>
+        <v>631</v>
       </c>
       <c r="O66" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6699,56 +7157,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="X66" t="s">
-        <v>572</v>
+        <v>633</v>
       </c>
       <c r="Y66" t="s">
-        <v>573</v>
+        <v>634</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>58442</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>156125</v>
+      </c>
+      <c r="C67" t="s">
+        <v>635</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="J67" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="K67" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
       <c r="L67" t="s">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>579</v>
+        <v>641</v>
       </c>
       <c r="O67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6770,56 +7232,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="X67" t="s">
-        <v>572</v>
+        <v>633</v>
       </c>
       <c r="Y67" t="s">
-        <v>580</v>
+        <v>642</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>58442</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>156126</v>
+      </c>
+      <c r="C68" t="s">
+        <v>643</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>581</v>
+        <v>644</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>582</v>
+        <v>645</v>
       </c>
       <c r="J68" t="s">
-        <v>583</v>
+        <v>646</v>
       </c>
       <c r="K68" t="s">
-        <v>584</v>
+        <v>647</v>
       </c>
       <c r="L68" t="s">
-        <v>585</v>
+        <v>648</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>579</v>
+        <v>641</v>
       </c>
       <c r="O68" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6841,56 +7307,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="X68" t="s">
-        <v>572</v>
+        <v>633</v>
       </c>
       <c r="Y68" t="s">
-        <v>586</v>
+        <v>649</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>58442</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>32317</v>
+      </c>
+      <c r="C69" t="s">
+        <v>650</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>587</v>
+        <v>651</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>588</v>
+        <v>652</v>
       </c>
       <c r="J69" t="s">
-        <v>589</v>
+        <v>653</v>
       </c>
       <c r="K69" t="s">
-        <v>590</v>
+        <v>654</v>
       </c>
       <c r="L69" t="s">
-        <v>591</v>
+        <v>655</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>592</v>
+        <v>656</v>
       </c>
       <c r="O69" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6912,13 +7382,13 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="X69" t="s">
-        <v>572</v>
+        <v>633</v>
       </c>
       <c r="Y69" t="s">
-        <v>593</v>
+        <v>657</v>
       </c>
     </row>
     <row r="70">
@@ -6931,37 +7401,37 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>594</v>
+        <v>658</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>595</v>
+        <v>659</v>
       </c>
       <c r="J70" t="s">
-        <v>596</v>
+        <v>660</v>
       </c>
       <c r="K70" t="s">
-        <v>597</v>
+        <v>661</v>
       </c>
       <c r="L70" t="s">
-        <v>598</v>
+        <v>662</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>599</v>
+        <v>663</v>
       </c>
       <c r="O70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6983,56 +7453,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="X70" t="s">
-        <v>572</v>
+        <v>633</v>
       </c>
       <c r="Y70" t="s">
-        <v>600</v>
+        <v>664</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>58442</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>156127</v>
+      </c>
+      <c r="C71" t="s">
+        <v>665</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>602</v>
+        <v>667</v>
       </c>
       <c r="J71" t="s">
-        <v>603</v>
+        <v>668</v>
       </c>
       <c r="K71" t="s">
-        <v>604</v>
+        <v>669</v>
       </c>
       <c r="L71" t="s">
-        <v>605</v>
+        <v>670</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>606</v>
+        <v>671</v>
       </c>
       <c r="O71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7054,56 +7528,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>607</v>
+        <v>672</v>
       </c>
       <c r="X71" t="s">
-        <v>608</v>
+        <v>673</v>
       </c>
       <c r="Y71" t="s">
-        <v>609</v>
+        <v>674</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>58442</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>156128</v>
+      </c>
+      <c r="C72" t="s">
+        <v>675</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>610</v>
+        <v>676</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>611</v>
+        <v>677</v>
       </c>
       <c r="J72" t="s">
-        <v>612</v>
+        <v>678</v>
       </c>
       <c r="K72" t="s">
-        <v>613</v>
+        <v>679</v>
       </c>
       <c r="L72" t="s">
-        <v>614</v>
+        <v>680</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>615</v>
+        <v>681</v>
       </c>
       <c r="O72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7115,56 +7593,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>616</v>
+        <v>682</v>
       </c>
       <c r="X72" t="s">
-        <v>617</v>
+        <v>683</v>
       </c>
       <c r="Y72" t="s">
-        <v>618</v>
+        <v>684</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>58442</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>156129</v>
+      </c>
+      <c r="C73" t="s">
+        <v>685</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>619</v>
+        <v>686</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>620</v>
+        <v>687</v>
       </c>
       <c r="J73" t="s">
-        <v>621</v>
+        <v>688</v>
       </c>
       <c r="K73" t="s">
-        <v>622</v>
+        <v>689</v>
       </c>
       <c r="L73" t="s">
-        <v>623</v>
+        <v>690</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>624</v>
+        <v>691</v>
       </c>
       <c r="O73" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7176,56 +7658,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>625</v>
+        <v>692</v>
       </c>
       <c r="X73" t="s">
-        <v>626</v>
+        <v>693</v>
       </c>
       <c r="Y73" t="s">
-        <v>627</v>
+        <v>694</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>58442</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>156130</v>
+      </c>
+      <c r="C74" t="s">
+        <v>695</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>628</v>
+        <v>696</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>629</v>
+        <v>697</v>
       </c>
       <c r="J74" t="s">
-        <v>630</v>
+        <v>698</v>
       </c>
       <c r="K74" t="s">
-        <v>631</v>
+        <v>699</v>
       </c>
       <c r="L74" t="s">
-        <v>632</v>
+        <v>700</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>633</v>
+        <v>701</v>
       </c>
       <c r="O74" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7243,56 +7729,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="X74" t="s">
-        <v>635</v>
+        <v>703</v>
       </c>
       <c r="Y74" t="s">
-        <v>636</v>
+        <v>704</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>58442</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>40127</v>
+      </c>
+      <c r="C75" t="s">
+        <v>705</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>637</v>
+        <v>706</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>638</v>
+        <v>707</v>
       </c>
       <c r="J75" t="s">
-        <v>639</v>
+        <v>708</v>
       </c>
       <c r="K75" t="s">
-        <v>640</v>
+        <v>709</v>
       </c>
       <c r="L75" t="s">
-        <v>641</v>
+        <v>710</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>642</v>
+        <v>711</v>
       </c>
       <c r="O75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7308,56 +7798,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>643</v>
+        <v>712</v>
       </c>
       <c r="X75" t="s">
-        <v>644</v>
+        <v>713</v>
       </c>
       <c r="Y75" t="s">
-        <v>645</v>
+        <v>714</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>58442</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>156131</v>
+      </c>
+      <c r="C76" t="s">
+        <v>715</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
       <c r="J76" t="s">
-        <v>648</v>
+        <v>718</v>
       </c>
       <c r="K76" t="s">
-        <v>649</v>
+        <v>719</v>
       </c>
       <c r="L76" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>651</v>
+        <v>721</v>
       </c>
       <c r="O76" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7369,13 +7863,13 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="X76" t="s">
-        <v>653</v>
+        <v>723</v>
       </c>
       <c r="Y76" t="s">
-        <v>654</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
